--- a/Q3/pingpong_output.xlsx
+++ b/Q3/pingpong_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Temp (s)</t>
+          <t>Latency (us)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Start Time (s)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>End Time (s)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Latency (us)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Comm. Time (us)</t>
         </is>
@@ -469,391 +454,360 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7e-06</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00024</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7.284</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.112499</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Data Size (bytes)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Latency (us)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Comm. Time (us)</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.000256</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.000257</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.000527</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.548</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.134495</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.017000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.000003</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>64</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.000539</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.000539</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.000878</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.507</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.168972</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.017000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.000195</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>96</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0008899999999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0008899999999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.001253</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.501</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.181048</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.025000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.000287</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>128</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.001265</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001265</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.001626</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.179934</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.018000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.000285</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>160</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.001638</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.001638</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.002082</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.221403</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.019000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.000285</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>192</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.002096</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.002096</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.002522</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.212741</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.029000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.000319</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>224</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002535</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.002536</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.002928</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.196051</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.018000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.000336</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>256</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.00294</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.002941</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.003357</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.503</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.207883</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.018000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.000323</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>288</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003369</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.003369</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.003974</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.301967</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.017000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.000332</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>320</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.003986</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.003987</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.004611</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.31164</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.019000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.000465</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>352</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.004626</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.004627</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.005248</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.310185</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.018000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.000458</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>384</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.005261</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.005261</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.005876</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.306851</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.020000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.000492</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>416</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.005887</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.005888</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.006484</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.297693</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.017000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.000501</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>448</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.006496</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.006496</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.007122</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.312676</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.024000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.001056</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>480</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.007137</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.007138</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.00776</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.310896</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.018000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.000555</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>512</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.007772</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.007772</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.008370000000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.298309</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.026000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.000501</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.025000</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.000515</t>
+        </is>
       </c>
     </row>
   </sheetData>
